--- a/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -300,6 +300,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Location.meta.id</t>
   </si>
   <si>
@@ -356,13 +363,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Location.meta.extension:as-data-trace</t>
-  </si>
-  <si>
-    <t>as-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-data-trace}
+    <t>Location.meta.extension:as-ext-data-trace</t>
+  </si>
+  <si>
+    <t>as-ext-data-trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
 </t>
   </si>
   <si>
@@ -477,6 +484,9 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>Location.meta.tag</t>
   </si>
   <si>
@@ -593,9 +603,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Location.extension</t>
   </si>
   <si>
@@ -652,6 +659,9 @@
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -674,6 +684,9 @@
   </si>
   <si>
     <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
     <t>The operational status if the location (where typically a bed/room).</t>
@@ -765,6 +778,9 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
   </si>
   <si>
@@ -784,6 +800,10 @@
     <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>.telecom</t>
   </si>
   <si>
@@ -800,14 +820,10 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>AD</t>
@@ -889,6 +905,9 @@
     <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
   </si>
   <si>
+    <t>Do not use an IEEE type floating point type, instead use something that works like a true decimal, with inbuilt precision (e.g. Java BigInteger)</t>
+  </si>
+  <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
   </si>
   <si>
@@ -929,6 +948,10 @@
     <t>Need to know who manages the location.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>.scopingEntity[classCode=ORG determinerKind=INSTANCE]</t>
   </si>
   <si>
@@ -945,6 +968,9 @@
     <t>Another Location of which this Location is physically a part of.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.</t>
   </si>
   <si>
@@ -1049,6 +1075,9 @@
   </si>
   <si>
     <t>Organizations may have different systems at different locations that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1369,17 +1398,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1388,24 +1417,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.4375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="65.8671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="70.30078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1832,13 +1861,13 @@
         <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>73</v>
@@ -1846,10 +1875,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1872,13 +1901,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1929,7 +1958,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -1944,7 +1973,7 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>73</v>
@@ -1952,14 +1981,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1978,16 +2007,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2025,19 +2054,19 @@
         <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -2046,13 +2075,13 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>73</v>
@@ -2060,13 +2089,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>73</v>
@@ -2088,13 +2117,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2145,7 +2174,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -2154,10 +2183,10 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -2168,10 +2197,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2197,13 +2226,13 @@
         <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2253,7 +2282,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2262,13 +2291,13 @@
         <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -2276,10 +2305,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2302,16 +2331,16 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2361,7 +2390,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2370,13 +2399,13 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
@@ -2384,10 +2413,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2410,16 +2439,16 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2469,7 +2498,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2478,13 +2507,13 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>73</v>
@@ -2492,10 +2521,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2518,16 +2547,16 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2577,7 +2606,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2586,13 +2615,13 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2600,10 +2629,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2626,16 +2655,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2661,13 +2690,13 @@
         <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>73</v>
@@ -2685,7 +2714,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2694,13 +2723,13 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -2708,10 +2737,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2734,16 +2763,16 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2769,13 +2798,13 @@
         <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>73</v>
@@ -2793,7 +2822,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2802,13 +2831,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2816,10 +2845,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2842,16 +2871,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2901,7 +2930,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2910,13 +2939,13 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -2924,10 +2953,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2950,16 +2979,16 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2985,13 +3014,13 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>73</v>
@@ -3009,7 +3038,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -3018,13 +3047,13 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3032,14 +3061,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3058,16 +3087,16 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3117,7 +3146,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3126,13 +3155,13 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
@@ -3140,14 +3169,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3166,16 +3195,16 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3225,7 +3254,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3240,7 +3269,7 @@
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
@@ -3248,14 +3277,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3274,16 +3303,16 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3321,19 +3350,19 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3342,13 +3371,13 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
@@ -3356,14 +3385,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3382,19 +3411,19 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3431,19 +3460,19 @@
         <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3452,13 +3481,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
@@ -3466,10 +3495,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3492,17 +3521,17 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -3551,7 +3580,7 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -3560,24 +3589,24 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3600,15 +3629,17 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3633,13 +3664,13 @@
         <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
@@ -3657,7 +3688,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3666,24 +3697,24 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3706,15 +3737,17 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>73</v>
@@ -3739,31 +3772,31 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -3772,24 +3805,24 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3812,16 +3845,16 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3871,7 +3904,7 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -3880,13 +3913,13 @@
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>73</v>
@@ -3894,10 +3927,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3920,19 +3953,19 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -3981,7 +4014,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -3990,13 +4023,13 @@
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>73</v>
@@ -4004,10 +4037,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4030,17 +4063,19 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4089,7 +4124,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4098,13 +4133,13 @@
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>73</v>
@@ -4112,10 +4147,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4138,19 +4173,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4175,13 +4210,13 @@
         <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>73</v>
@@ -4199,7 +4234,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4208,24 +4243,24 @@
         <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4248,15 +4283,17 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -4281,31 +4318,31 @@
         <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4314,24 +4351,24 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4354,13 +4391,13 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4411,7 +4448,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4420,13 +4457,13 @@
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
@@ -4434,10 +4471,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4460,19 +4497,19 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4521,7 +4558,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4530,13 +4567,13 @@
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>73</v>
@@ -4544,10 +4581,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4570,17 +4607,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -4605,31 +4644,31 @@
         <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Z30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -4638,24 +4677,24 @@
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4678,17 +4717,17 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -4737,7 +4776,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -4746,13 +4785,13 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -4760,10 +4799,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4786,13 +4825,13 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4843,7 +4882,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -4858,7 +4897,7 @@
         <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
@@ -4866,14 +4905,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4892,16 +4931,16 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4939,19 +4978,19 @@
         <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -4960,13 +4999,13 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
@@ -4974,14 +5013,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5000,19 +5039,19 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5061,7 +5100,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5070,13 +5109,13 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
@@ -5084,10 +5123,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5110,15 +5149,17 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5167,7 +5208,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5176,13 +5217,13 @@
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
@@ -5190,10 +5231,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5216,15 +5257,17 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5273,7 +5316,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -5282,13 +5325,13 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -5296,10 +5339,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5322,15 +5365,17 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -5379,7 +5424,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5388,13 +5433,13 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>73</v>
@@ -5402,10 +5447,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5428,19 +5473,19 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>73</v>
@@ -5489,7 +5534,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5498,13 +5543,13 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -5512,10 +5557,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5538,17 +5583,19 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>73</v>
@@ -5597,7 +5644,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5606,13 +5653,13 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
@@ -5620,10 +5667,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5646,16 +5693,16 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5705,7 +5752,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5714,13 +5761,13 @@
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
@@ -5728,10 +5775,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5754,13 +5801,13 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5811,7 +5858,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -5826,7 +5873,7 @@
         <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
@@ -5834,14 +5881,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5860,16 +5907,16 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5907,19 +5954,19 @@
         <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -5928,13 +5975,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -5942,14 +5989,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -5968,19 +6015,19 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6029,7 +6076,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6038,13 +6085,13 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6052,10 +6099,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6078,15 +6125,17 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6111,13 +6160,13 @@
         <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>73</v>
@@ -6135,7 +6184,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6144,13 +6193,13 @@
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6158,10 +6207,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6184,13 +6233,13 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6241,7 +6290,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6250,13 +6299,13 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6264,10 +6313,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6290,13 +6339,13 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6347,7 +6396,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6356,13 +6405,13 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6370,10 +6419,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6396,13 +6445,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6453,7 +6502,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -6462,13 +6511,13 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -6476,10 +6525,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6502,15 +6551,17 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>73</v>
@@ -6559,7 +6610,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6568,13 +6619,13 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
@@ -6582,10 +6633,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6608,17 +6659,19 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -6667,7 +6720,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6676,13 +6729,13 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-2</t>
+    <t>1.0.0-ballot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T12:08:09+00:00</t>
+    <t>2023-12-19T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,10 +75,16 @@
     <t>No display for ContactDetail</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créé à partir de Location dans le contexte de l'Annuaire Santé pour prise en compte de l'adresse du professionnel au niveau du profil AsPractitionerRoleProfile.</t>
+    <t>Profil cgénérique réé à partir de Location dans le contexte de l'Annuaire Santé pour prise en compte de l'adresse du professionnel au niveau du profil AsPractitionerRoleProfile.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,6 +262,10 @@
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+  </si>
+  <si>
     <t>.Role[classCode=SDLC]</t>
   </si>
   <si>
@@ -304,6 +314,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -373,10 +387,10 @@
 </t>
   </si>
   <si>
-    <t>DataTrace</t>
-  </si>
-  <si>
-    <t>Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI))..</t>
+    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
   </si>
   <si>
     <t>Location.meta.versionId</t>
@@ -392,10 +406,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>Location.meta.lastUpdated</t>
@@ -427,7 +437,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -447,7 +457,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -820,7 +830,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.</t>
@@ -1199,10 +1209,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1226,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1326,21 +1336,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1380,6 +1390,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1439,5306 +1457,5306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil cgénérique réé à partir de Location dans le contexte de l'Annuaire Santé pour prise en compte de l'adresse du professionnel au niveau du profil AsPractitionerRoleProfile.</t>
+    <t>Profil générique créé à partir de Location dans le contexte de l'Annuaire Santé pour prise en compte de l'adresse du professionnel au niveau du profil AsPractitionerRoleProfile.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Location</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -310,318 +310,344 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Location.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.meta.extension:as-ext-data-trace</t>
+  </si>
+  <si>
+    <t>as-ext-data-trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
+</t>
+  </si>
+  <si>
+    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
+  </si>
+  <si>
+    <t>Location.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Location.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Location.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Location.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Location.meta.profile:fr-canonical</t>
+  </si>
+  <si>
+    <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Location.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Location.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Location.extension:usePeriod</t>
+  </si>
+  <si>
+    <t>usePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-use-period}
+</t>
+  </si>
+  <si>
+    <t>FR Core Use Period Extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Location.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Location.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Location.meta.extension:as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>as-ext-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
-</t>
-  </si>
-  <si>
-    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
-  </si>
-  <si>
-    <t>Location.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Location.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Location.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Location.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Location.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Location.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Location.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Location.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Location.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Location.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Location.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
     <t>Location.modifierExtension</t>
   </si>
   <si>
@@ -645,7 +671,7 @@
 </t>
   </si>
   <si>
-    <t>Unique code or number identifying the location to its users</t>
+    <t>Identifiant fonctionnel du lieu. Il est recommandé de remplir ce champs pour faciliter l'identification des ressources.</t>
   </si>
   <si>
     <t>Unique code or number identifying the location to its users.</t>
@@ -660,6 +686,153 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Location.identifier.id</t>
+  </si>
+  <si>
+    <t>Location.identifier.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Location.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Location.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Location.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>Location.status</t>
   </si>
   <si>
@@ -669,12 +842,6 @@
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Indicates whether the location is still in use.</t>
   </si>
   <si>
@@ -694,9 +861,6 @@
   </si>
   <si>
     <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
     <t>The operational status if the location (where typically a bed/room).</t>
@@ -778,43 +942,36 @@
     <t>Location.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Type of function performed</t>
+  </si>
+  <si>
+    <t>Indicates the type of function performed at the location.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>Location.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
-    <t>Type of function performed</t>
-  </si>
-  <si>
-    <t>Indicates the type of function performed at the location.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>Location.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>.telecom</t>
+    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+  </si>
+  <si>
+    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
+  </si>
+  <si>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>TEL</t>
   </si>
   <si>
     <t>Location.address</t>
@@ -851,10 +1008,7 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>Physical form of the location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -915,9 +1069,6 @@
     <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
   </si>
   <si>
-    <t>Do not use an IEEE type floating point type, instead use something that works like a true decimal, with inbuilt precision (e.g. Java BigInteger)</t>
-  </si>
-  <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
   </si>
   <si>
@@ -942,49 +1093,137 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t>Organization responsible for provisioning and upkeep</t>
+  </si>
+  <si>
+    <t>The organization responsible for the provisioning and upkeep of the location.</t>
+  </si>
+  <si>
+    <t>This can also be used as the part of the organization hierarchy where this location provides services. These services can be defined through the HealthcareService resource.</t>
+  </si>
+  <si>
+    <t>Need to know who manages the location.</t>
+  </si>
+  <si>
+    <t>.scopingEntity[classCode=ORG determinerKind=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Location.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
 </t>
   </si>
   <si>
-    <t>Organization responsible for provisioning and upkeep</t>
-  </si>
-  <si>
-    <t>The organization responsible for the provisioning and upkeep of the location.</t>
-  </si>
-  <si>
-    <t>This can also be used as the part of the organization hierarchy where this location provides services. These services can be defined through the HealthcareService resource.</t>
-  </si>
-  <si>
-    <t>Need to know who manages the location.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>.scopingEntity[classCode=ORG determinerKind=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Location.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
+    <t>Another Location this one is physically a part of</t>
+  </si>
+  <si>
+    <t>Another Location of which this Location is physically a part of.</t>
+  </si>
+  <si>
+    <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.</t>
+  </si>
+  <si>
+    <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
+  </si>
+  <si>
+    <t>Location.partOf.id</t>
+  </si>
+  <si>
+    <t>Location.partOf.extension</t>
+  </si>
+  <si>
+    <t>Location.partOf.extension:positionRoom</t>
+  </si>
+  <si>
+    <t>positionRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-room}
 </t>
   </si>
   <si>
-    <t>Another Location this one is physically a part of</t>
-  </si>
-  <si>
-    <t>Another Location of which this Location is physically a part of.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.</t>
-  </si>
-  <si>
-    <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
+    <t>FR Core Location Part Of Position Room Extension</t>
+  </si>
+  <si>
+    <t>Position of the bed in the bedroom | Position du lit dans la chambre</t>
+  </si>
+  <si>
+    <t>Location.partOf.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Location.partOf.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Location.partOf.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Location.partOf.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Location.hoursOfOperation</t>
@@ -1085,9 +1324,6 @@
   </si>
   <si>
     <t>Organizations may have different systems at different locations that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1435,13 +1671,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1451,7 +1687,7 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="70.30078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1879,13 +2115,13 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>75</v>
@@ -1893,10 +2129,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1919,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1976,7 +2212,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1991,7 +2227,7 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -1999,14 +2235,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2025,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2072,19 +2308,19 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2093,13 +2329,13 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>75</v>
@@ -2107,13 +2343,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>75</v>
@@ -2135,13 +2371,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2192,7 +2428,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2201,10 +2437,10 @@
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -2215,10 +2451,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2244,13 +2480,13 @@
         <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2300,7 +2536,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2309,13 +2545,13 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK8" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -2323,10 +2559,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2349,16 +2585,16 @@
         <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2408,7 +2644,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2417,13 +2653,13 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2431,10 +2667,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2457,16 +2693,16 @@
         <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2516,7 +2752,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2525,13 +2761,13 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2539,10 +2775,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2565,16 +2801,16 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2612,16 +2848,16 @@
         <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>143</v>
@@ -2633,13 +2869,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2650,9 +2886,11 @@
         <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2661,7 +2899,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2673,16 +2911,16 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2693,7 +2931,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2708,13 +2946,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2732,7 +2970,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2741,13 +2979,13 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2755,10 +2993,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2781,16 +3019,16 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2816,13 +3054,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2840,7 +3078,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2849,13 +3087,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2863,10 +3101,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2877,28 +3115,28 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2924,13 +3162,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -2948,22 +3186,22 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -2971,10 +3209,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2991,22 +3229,22 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3032,13 +3270,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3056,7 +3294,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3065,13 +3303,13 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3079,14 +3317,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3105,16 +3343,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3140,13 +3378,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3164,7 +3402,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3173,13 +3411,13 @@
         <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3187,21 +3425,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3213,16 +3451,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3272,22 +3510,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3295,14 +3533,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3321,16 +3559,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3368,19 +3606,19 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3389,13 +3627,13 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3403,14 +3641,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3423,26 +3661,22 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3478,19 +3712,17 @@
         <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3499,13 +3731,13 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3513,12 +3745,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3527,7 +3761,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3536,21 +3770,19 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3598,7 +3830,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3607,35 +3839,35 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3644,21 +3876,23 @@
         <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3682,13 +3916,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -3712,27 +3946,27 @@
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3743,7 +3977,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3755,18 +3989,18 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -3790,13 +4024,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -3814,33 +4048,33 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3860,20 +4094,18 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3922,7 +4154,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3931,13 +4163,13 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3945,14 +4177,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3971,20 +4203,18 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4020,19 +4250,19 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4041,13 +4271,13 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4055,10 +4285,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4075,25 +4305,25 @@
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4118,13 +4348,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4142,7 +4372,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4151,13 +4381,13 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4165,10 +4395,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4176,7 +4406,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -4191,19 +4421,19 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4228,13 +4458,11 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4252,7 +4480,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4261,24 +4489,24 @@
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4286,10 +4514,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4301,18 +4529,20 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4324,7 +4554,7 @@
         <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4336,13 +4566,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4360,33 +4590,33 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4394,10 +4624,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4406,18 +4636,20 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4430,7 +4662,7 @@
         <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>75</v>
@@ -4466,22 +4698,22 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4489,10 +4721,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4512,23 +4744,19 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4576,7 +4804,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4585,13 +4813,13 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4599,10 +4827,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4625,20 +4853,18 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4662,13 +4888,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4686,7 +4912,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4695,24 +4921,24 @@
         <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4729,24 +4955,22 @@
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4770,13 +4994,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -4794,7 +5018,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4803,24 +5027,24 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4840,16 +5064,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4876,13 +5100,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4900,7 +5124,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4912,32 +5136,32 @@
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4946,19 +5170,19 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4996,34 +5220,34 @@
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5038,7 +5262,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5051,25 +5275,25 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="O34" t="s" s="2">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5118,7 +5342,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5127,13 +5351,13 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5152,7 +5376,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5164,21 +5388,21 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5229,19 +5453,19 @@
         <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5249,10 +5473,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5260,7 +5484,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>84</v>
@@ -5272,21 +5496,23 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5310,13 +5536,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5334,33 +5560,33 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5380,20 +5606,18 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5418,13 +5642,11 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5442,33 +5664,33 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5479,7 +5701,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5488,23 +5710,19 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5552,22 +5770,22 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5575,10 +5793,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5601,19 +5819,19 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5662,7 +5880,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5671,13 +5889,13 @@
         <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5685,10 +5903,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5699,7 +5917,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5708,21 +5926,21 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5746,13 +5964,11 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -5770,33 +5986,33 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5819,16 +6035,18 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5876,7 +6094,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5888,10 +6106,10 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5899,21 +6117,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -5925,17 +6143,15 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -5972,34 +6188,34 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6007,14 +6223,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6027,26 +6243,24 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6094,7 +6308,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6103,13 +6317,13 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6117,14 +6331,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6137,24 +6351,26 @@
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6178,13 +6394,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6202,7 +6418,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6211,13 +6427,13 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6225,10 +6441,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6236,7 +6452,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>84</v>
@@ -6251,13 +6467,13 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6308,22 +6524,22 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK45" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6331,10 +6547,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6342,7 +6558,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>84</v>
@@ -6357,13 +6573,13 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6414,22 +6630,22 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6437,10 +6653,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6463,13 +6679,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6520,7 +6736,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6529,13 +6745,13 @@
         <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6543,10 +6759,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6566,21 +6782,23 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>75</v>
       </c>
@@ -6628,7 +6846,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6637,13 +6855,13 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK48" t="s" s="2">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6651,10 +6869,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6665,7 +6883,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6677,19 +6895,17 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -6738,29 +6954,1853 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI49" t="s" s="2">
+      <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL49">
+  <autoFilter ref="A1:AL66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6770,7 +8810,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
   </si>
   <si>
     <t>Location.meta.versionId</t>
